--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.028415333333333</v>
+        <v>2.752413666666667</v>
       </c>
       <c r="H2">
-        <v>3.085246</v>
+        <v>8.257241</v>
       </c>
       <c r="I2">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="J2">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N2">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O2">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P2">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q2">
-        <v>100.1880891077553</v>
+        <v>253.9184482675504</v>
       </c>
       <c r="R2">
-        <v>901.6928019697981</v>
+        <v>2285.266034407953</v>
       </c>
       <c r="S2">
-        <v>0.01575565309554173</v>
+        <v>0.03571859182244288</v>
       </c>
       <c r="T2">
-        <v>0.01575565309554173</v>
+        <v>0.03571859182244286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.028415333333333</v>
+        <v>2.752413666666667</v>
       </c>
       <c r="H3">
-        <v>3.085246</v>
+        <v>8.257241</v>
       </c>
       <c r="I3">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="J3">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q3">
-        <v>35.90489792938267</v>
+        <v>96.09457245331934</v>
       </c>
       <c r="R3">
-        <v>323.144081364444</v>
+        <v>864.8511520798742</v>
       </c>
       <c r="S3">
-        <v>0.005646430840673634</v>
+        <v>0.01351757949542778</v>
       </c>
       <c r="T3">
-        <v>0.005646430840673631</v>
+        <v>0.01351757949542777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.028415333333333</v>
+        <v>2.752413666666667</v>
       </c>
       <c r="H4">
-        <v>3.085246</v>
+        <v>8.257241</v>
       </c>
       <c r="I4">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="J4">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N4">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q4">
-        <v>51.86009849815934</v>
+        <v>116.2007001487908</v>
       </c>
       <c r="R4">
-        <v>466.740886483434</v>
+        <v>1045.806301339117</v>
       </c>
       <c r="S4">
-        <v>0.008155557499043805</v>
+        <v>0.01634589926968751</v>
       </c>
       <c r="T4">
-        <v>0.008155557499043804</v>
+        <v>0.0163458992696875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.028415333333333</v>
+        <v>2.752413666666667</v>
       </c>
       <c r="H5">
-        <v>3.085246</v>
+        <v>8.257241</v>
       </c>
       <c r="I5">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="J5">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N5">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O5">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P5">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q5">
-        <v>16.47323976817022</v>
+        <v>37.57480178589189</v>
       </c>
       <c r="R5">
-        <v>148.259157913532</v>
+        <v>338.173216073027</v>
       </c>
       <c r="S5">
-        <v>0.00259059388654296</v>
+        <v>0.005285630157857998</v>
       </c>
       <c r="T5">
-        <v>0.002590593886542959</v>
+        <v>0.005285630157857996</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.028415333333333</v>
+        <v>2.752413666666667</v>
       </c>
       <c r="H6">
-        <v>3.085246</v>
+        <v>8.257241</v>
       </c>
       <c r="I6">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="J6">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N6">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O6">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P6">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q6">
-        <v>20.16654798937734</v>
+        <v>50.03449494755779</v>
       </c>
       <c r="R6">
-        <v>181.498931904396</v>
+        <v>450.31045452802</v>
       </c>
       <c r="S6">
-        <v>0.00317140627279045</v>
+        <v>0.00703832948833552</v>
       </c>
       <c r="T6">
-        <v>0.003171406272790449</v>
+        <v>0.007038329488335518</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.028415333333333</v>
+        <v>2.752413666666667</v>
       </c>
       <c r="H7">
-        <v>3.085246</v>
+        <v>8.257241</v>
       </c>
       <c r="I7">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="J7">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N7">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O7">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P7">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q7">
-        <v>65.69929852406601</v>
+        <v>335.6488793299063</v>
       </c>
       <c r="R7">
-        <v>591.293686716594</v>
+        <v>3020.839913969156</v>
       </c>
       <c r="S7">
-        <v>0.01033192034486556</v>
+        <v>0.04721557412722041</v>
       </c>
       <c r="T7">
-        <v>0.01033192034486555</v>
+        <v>0.0472155741272204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.925610333333333</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H8">
         <v>14.776831</v>
       </c>
       <c r="I8">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684906</v>
       </c>
       <c r="J8">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684905</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N8">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O8">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P8">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q8">
-        <v>479.8523232696003</v>
+        <v>454.4023842627137</v>
       </c>
       <c r="R8">
-        <v>4318.670909426403</v>
+        <v>4089.621458364423</v>
       </c>
       <c r="S8">
-        <v>0.07546193175113004</v>
+        <v>0.06392057527668388</v>
       </c>
       <c r="T8">
-        <v>0.07546193175113002</v>
+        <v>0.06392057527668385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.925610333333333</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H9">
         <v>14.776831</v>
       </c>
       <c r="I9">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684906</v>
       </c>
       <c r="J9">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684905</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q9">
         <v>171.9670356187927</v>
@@ -1013,10 +1013,10 @@
         <v>1547.703320569134</v>
       </c>
       <c r="S9">
-        <v>0.02704366338561729</v>
+        <v>0.02419052413911639</v>
       </c>
       <c r="T9">
-        <v>0.02704366338561728</v>
+        <v>0.02419052413911638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.925610333333333</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H10">
         <v>14.776831</v>
       </c>
       <c r="I10">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684906</v>
       </c>
       <c r="J10">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684905</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N10">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q10">
-        <v>248.3847029217943</v>
+        <v>207.9481643057719</v>
       </c>
       <c r="R10">
-        <v>2235.462326296149</v>
+        <v>1871.533478751948</v>
       </c>
       <c r="S10">
-        <v>0.03906116234301996</v>
+        <v>0.02925197303205704</v>
       </c>
       <c r="T10">
-        <v>0.03906116234301995</v>
+        <v>0.02925197303205703</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.925610333333333</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H11">
         <v>14.776831</v>
       </c>
       <c r="I11">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684906</v>
       </c>
       <c r="J11">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684905</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N11">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O11">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P11">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q11">
-        <v>78.89882365190022</v>
+        <v>67.24237500741745</v>
       </c>
       <c r="R11">
-        <v>710.0894128671021</v>
+        <v>605.181375066757</v>
       </c>
       <c r="S11">
-        <v>0.01240768744245305</v>
+        <v>0.009458954095099194</v>
       </c>
       <c r="T11">
-        <v>0.01240768744245304</v>
+        <v>0.009458954095099191</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.925610333333333</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H12">
         <v>14.776831</v>
       </c>
       <c r="I12">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684906</v>
       </c>
       <c r="J12">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684905</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N12">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O12">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P12">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q12">
-        <v>96.58797758506734</v>
+        <v>89.5397477208689</v>
       </c>
       <c r="R12">
-        <v>869.2917982656061</v>
+        <v>805.8577294878202</v>
       </c>
       <c r="S12">
-        <v>0.01518949689112777</v>
+        <v>0.01259551530244188</v>
       </c>
       <c r="T12">
-        <v>0.01518949689112776</v>
+        <v>0.01259551530244187</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.925610333333333</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H13">
         <v>14.776831</v>
       </c>
       <c r="I13">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684906</v>
       </c>
       <c r="J13">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684905</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N13">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O13">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P13">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q13">
-        <v>314.667754567601</v>
+        <v>600.6639221499553</v>
       </c>
       <c r="R13">
-        <v>2832.009791108409</v>
+        <v>5405.975299349597</v>
       </c>
       <c r="S13">
-        <v>0.04948488413615642</v>
+        <v>0.0844951188230922</v>
       </c>
       <c r="T13">
-        <v>0.04948488413615641</v>
+        <v>0.08449511882309217</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.373401</v>
+        <v>2.034199</v>
       </c>
       <c r="H14">
-        <v>13.120203</v>
+        <v>6.102596999999999</v>
       </c>
       <c r="I14">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="J14">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N14">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O14">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P14">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q14">
-        <v>426.056161251271</v>
+        <v>187.660982723189</v>
       </c>
       <c r="R14">
-        <v>3834.505451261439</v>
+        <v>1688.948844508701</v>
       </c>
       <c r="S14">
-        <v>0.06700190746899466</v>
+        <v>0.02639818449042051</v>
       </c>
       <c r="T14">
-        <v>0.06700190746899462</v>
+        <v>0.02639818449042051</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.373401</v>
+        <v>2.034199</v>
       </c>
       <c r="H15">
-        <v>13.120203</v>
+        <v>6.102596999999999</v>
       </c>
       <c r="I15">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="J15">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q15">
-        <v>152.687840622038</v>
+        <v>71.01966014676199</v>
       </c>
       <c r="R15">
-        <v>1374.190565598342</v>
+        <v>639.176941320858</v>
       </c>
       <c r="S15">
-        <v>0.02401180290164828</v>
+        <v>0.00999030306564372</v>
       </c>
       <c r="T15">
-        <v>0.02401180290164827</v>
+        <v>0.00999030306564372</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.373401</v>
+        <v>2.034199</v>
       </c>
       <c r="H16">
-        <v>13.120203</v>
+        <v>6.102596999999999</v>
       </c>
       <c r="I16">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="J16">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N16">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q16">
-        <v>220.538336293393</v>
+        <v>85.87929601738766</v>
       </c>
       <c r="R16">
-        <v>1984.845026640537</v>
+        <v>772.9136641564891</v>
       </c>
       <c r="S16">
-        <v>0.0346820221031409</v>
+        <v>0.0120806012378102</v>
       </c>
       <c r="T16">
-        <v>0.03468202210314088</v>
+        <v>0.0120806012378102</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.373401</v>
+        <v>2.034199</v>
       </c>
       <c r="H17">
-        <v>13.120203</v>
+        <v>6.102596999999999</v>
       </c>
       <c r="I17">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="J17">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N17">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O17">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P17">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q17">
-        <v>70.05349000568067</v>
+        <v>27.77003513088433</v>
       </c>
       <c r="R17">
-        <v>630.481410051126</v>
+        <v>249.930316177959</v>
       </c>
       <c r="S17">
-        <v>0.01101666372211571</v>
+        <v>0.0039063981231084</v>
       </c>
       <c r="T17">
-        <v>0.01101666372211571</v>
+        <v>0.0039063981231084</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.373401</v>
+        <v>2.034199</v>
       </c>
       <c r="H18">
-        <v>13.120203</v>
+        <v>6.102596999999999</v>
       </c>
       <c r="I18">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="J18">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N18">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O18">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P18">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q18">
-        <v>85.75951591214201</v>
+        <v>36.97849666292666</v>
       </c>
       <c r="R18">
-        <v>771.8356432092781</v>
+        <v>332.80646996634</v>
       </c>
       <c r="S18">
-        <v>0.01348660498854357</v>
+        <v>0.005201748189319878</v>
       </c>
       <c r="T18">
-        <v>0.01348660498854356</v>
+        <v>0.005201748189319878</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.373401</v>
+        <v>2.034199</v>
       </c>
       <c r="H19">
-        <v>13.120203</v>
+        <v>6.102596999999999</v>
       </c>
       <c r="I19">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="J19">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N19">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O19">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P19">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q19">
-        <v>279.390406338213</v>
+        <v>248.0646797219613</v>
       </c>
       <c r="R19">
-        <v>2514.513657043917</v>
+        <v>2232.582117497652</v>
       </c>
       <c r="S19">
-        <v>0.04393714222608704</v>
+        <v>0.03489514488217708</v>
       </c>
       <c r="T19">
-        <v>0.04393714222608702</v>
+        <v>0.03489514488217708</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.678599333333334</v>
+        <v>3.17103</v>
       </c>
       <c r="H20">
-        <v>14.035798</v>
+        <v>9.51309</v>
       </c>
       <c r="I20">
-        <v>0.2076839583510432</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="J20">
-        <v>0.2076839583510431</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N20">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O20">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P20">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q20">
-        <v>455.7885435140194</v>
+        <v>292.53706547133</v>
       </c>
       <c r="R20">
-        <v>4102.096891626174</v>
+        <v>2632.83358924197</v>
       </c>
       <c r="S20">
-        <v>0.07167764392437374</v>
+        <v>0.04115105501706479</v>
       </c>
       <c r="T20">
-        <v>0.07167764392437372</v>
+        <v>0.04115105501706477</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.678599333333334</v>
+        <v>3.17103</v>
       </c>
       <c r="H21">
-        <v>14.035798</v>
+        <v>9.51309</v>
       </c>
       <c r="I21">
-        <v>0.2076839583510432</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="J21">
-        <v>0.2076839583510431</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q21">
-        <v>163.3431805915747</v>
+        <v>110.70965668314</v>
       </c>
       <c r="R21">
-        <v>1470.088625324172</v>
+        <v>996.3869101482601</v>
       </c>
       <c r="S21">
-        <v>0.02568746955693818</v>
+        <v>0.01557347670028754</v>
       </c>
       <c r="T21">
-        <v>0.02568746955693817</v>
+        <v>0.01557347670028754</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.678599333333334</v>
+        <v>3.17103</v>
       </c>
       <c r="H22">
-        <v>14.035798</v>
+        <v>9.51309</v>
       </c>
       <c r="I22">
-        <v>0.2076839583510432</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="J22">
-        <v>0.2076839583510431</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N22">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q22">
-        <v>235.9286315516713</v>
+        <v>133.87373804137</v>
       </c>
       <c r="R22">
-        <v>2123.357683965042</v>
+        <v>1204.86364237233</v>
       </c>
       <c r="S22">
-        <v>0.03710231133399543</v>
+        <v>0.01883195741573626</v>
       </c>
       <c r="T22">
-        <v>0.03710231133399541</v>
+        <v>0.01883195741573626</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.678599333333334</v>
+        <v>3.17103</v>
       </c>
       <c r="H23">
-        <v>14.035798</v>
+        <v>9.51309</v>
       </c>
       <c r="I23">
-        <v>0.2076839583510432</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="J23">
-        <v>0.2076839583510431</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N23">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O23">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P23">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q23">
-        <v>74.94218152834623</v>
+        <v>43.28957712646999</v>
       </c>
       <c r="R23">
-        <v>674.479633755116</v>
+        <v>389.60619413823</v>
       </c>
       <c r="S23">
-        <v>0.0117854629716891</v>
+        <v>0.006089524987634167</v>
       </c>
       <c r="T23">
-        <v>0.01178546297168909</v>
+        <v>0.006089524987634165</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.678599333333334</v>
+        <v>3.17103</v>
       </c>
       <c r="H24">
-        <v>14.035798</v>
+        <v>9.51309</v>
       </c>
       <c r="I24">
-        <v>0.2076839583510432</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="J24">
-        <v>0.2076839583510431</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N24">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O24">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P24">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q24">
-        <v>91.74425440830535</v>
+        <v>57.6442728922</v>
       </c>
       <c r="R24">
-        <v>825.6982896747481</v>
+        <v>518.7984560298</v>
       </c>
       <c r="S24">
-        <v>0.01442776939693615</v>
+        <v>0.00810879346650894</v>
       </c>
       <c r="T24">
-        <v>0.01442776939693614</v>
+        <v>0.008108793466508937</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.678599333333334</v>
+        <v>3.17103</v>
       </c>
       <c r="H25">
-        <v>14.035798</v>
+        <v>9.51309</v>
       </c>
       <c r="I25">
-        <v>0.2076839583510432</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="J25">
-        <v>0.2076839583510431</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N25">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O25">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P25">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q25">
-        <v>298.887700632458</v>
+        <v>386.69792942516</v>
       </c>
       <c r="R25">
-        <v>2689.989305692122</v>
+        <v>3480.28136482644</v>
       </c>
       <c r="S25">
-        <v>0.0470033011671106</v>
+        <v>0.05439662062351325</v>
       </c>
       <c r="T25">
-        <v>0.04700330116711057</v>
+        <v>0.05439662062351325</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.796371666666667</v>
+        <v>1.756129</v>
       </c>
       <c r="H26">
-        <v>5.389115</v>
+        <v>5.268387000000001</v>
       </c>
       <c r="I26">
-        <v>0.07974129687595831</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="J26">
-        <v>0.07974129687595832</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N26">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O26">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P26">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q26">
-        <v>175.0022960347217</v>
+        <v>162.008187954419</v>
       </c>
       <c r="R26">
-        <v>1575.020664312495</v>
+        <v>1458.073691589771</v>
       </c>
       <c r="S26">
-        <v>0.0275209906866358</v>
+        <v>0.02278961759934878</v>
       </c>
       <c r="T26">
-        <v>0.0275209906866358</v>
+        <v>0.02278961759934878</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.796371666666667</v>
+        <v>1.756129</v>
       </c>
       <c r="H27">
-        <v>5.389115</v>
+        <v>5.268387000000001</v>
       </c>
       <c r="I27">
-        <v>0.07974129687595831</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="J27">
-        <v>0.07974129687595832</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>104.738514</v>
       </c>
       <c r="O27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q27">
-        <v>62.71643298612334</v>
+        <v>61.31144728410201</v>
       </c>
       <c r="R27">
-        <v>564.4478968751101</v>
+        <v>551.8030255569181</v>
       </c>
       <c r="S27">
-        <v>0.009862832701164472</v>
+        <v>0.008624653208641754</v>
       </c>
       <c r="T27">
-        <v>0.009862832701164472</v>
+        <v>0.008624653208641754</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.796371666666667</v>
+        <v>1.756129</v>
       </c>
       <c r="H28">
-        <v>5.389115</v>
+        <v>5.268387000000001</v>
       </c>
       <c r="I28">
-        <v>0.07974129687595831</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="J28">
-        <v>0.07974129687595832</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N28">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q28">
-        <v>90.58598073473166</v>
+        <v>74.13980747985769</v>
       </c>
       <c r="R28">
-        <v>815.273826612585</v>
+        <v>667.2582673187192</v>
       </c>
       <c r="S28">
-        <v>0.01424561842117596</v>
+        <v>0.01042921276195416</v>
       </c>
       <c r="T28">
-        <v>0.01424561842117596</v>
+        <v>0.01042921276195416</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.796371666666667</v>
+        <v>1.756129</v>
       </c>
       <c r="H29">
-        <v>5.389115</v>
+        <v>5.268387000000001</v>
       </c>
       <c r="I29">
-        <v>0.07974129687595831</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="J29">
-        <v>0.07974129687595832</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N29">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O29">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P29">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q29">
-        <v>28.77442626398111</v>
+        <v>23.97393963145434</v>
       </c>
       <c r="R29">
-        <v>258.96983637583</v>
+        <v>215.765456683089</v>
       </c>
       <c r="S29">
-        <v>0.004525087585520559</v>
+        <v>0.003372403107825849</v>
       </c>
       <c r="T29">
-        <v>0.004525087585520559</v>
+        <v>0.003372403107825849</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.796371666666667</v>
+        <v>1.756129</v>
       </c>
       <c r="H30">
-        <v>5.389115</v>
+        <v>5.268387000000001</v>
       </c>
       <c r="I30">
-        <v>0.07974129687595831</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="J30">
-        <v>0.07974129687595832</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N30">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O30">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P30">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q30">
-        <v>35.22566637077667</v>
+        <v>31.92362712112667</v>
       </c>
       <c r="R30">
-        <v>317.0309973369901</v>
+        <v>287.3126440901401</v>
       </c>
       <c r="S30">
-        <v>0.005539614382706956</v>
+        <v>0.004490682006019142</v>
       </c>
       <c r="T30">
-        <v>0.005539614382706956</v>
+        <v>0.004490682006019141</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.796371666666667</v>
+        <v>1.756129</v>
       </c>
       <c r="H31">
-        <v>5.389115</v>
+        <v>5.268387000000001</v>
       </c>
       <c r="I31">
-        <v>0.07974129687595831</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="J31">
-        <v>0.07974129687595832</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N31">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O31">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P31">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q31">
-        <v>114.759430906165</v>
+        <v>214.1548481419214</v>
       </c>
       <c r="R31">
-        <v>1032.834878155485</v>
+        <v>1927.393633277292</v>
       </c>
       <c r="S31">
-        <v>0.01804715309875457</v>
+        <v>0.03012506440460977</v>
       </c>
       <c r="T31">
-        <v>0.01804715309875457</v>
+        <v>0.03012506440460977</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.725097333333334</v>
+        <v>7.358527</v>
       </c>
       <c r="H32">
-        <v>17.175292</v>
+        <v>22.075581</v>
       </c>
       <c r="I32">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="J32">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N32">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O32">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P32">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q32">
-        <v>557.7382436757774</v>
+        <v>678.846272274797</v>
       </c>
       <c r="R32">
-        <v>5019.644193081996</v>
+        <v>6109.616450473172</v>
       </c>
       <c r="S32">
-        <v>0.0877103292789726</v>
+        <v>0.09549299420742051</v>
       </c>
       <c r="T32">
-        <v>0.08771032927897257</v>
+        <v>0.0954929942074205</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.725097333333334</v>
+        <v>7.358527</v>
       </c>
       <c r="H33">
-        <v>17.175292</v>
+        <v>22.075581</v>
       </c>
       <c r="I33">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="J33">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>104.738514</v>
       </c>
       <c r="O33">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P33">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q33">
-        <v>199.8793957328987</v>
+        <v>256.907061069626</v>
       </c>
       <c r="R33">
-        <v>1798.914561596088</v>
+        <v>2312.163549626634</v>
       </c>
       <c r="S33">
-        <v>0.03143318180993514</v>
+        <v>0.0361389986165179</v>
       </c>
       <c r="T33">
-        <v>0.03143318180993512</v>
+        <v>0.0361389986165179</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.725097333333334</v>
+        <v>7.358527</v>
       </c>
       <c r="H34">
-        <v>17.175292</v>
+        <v>22.075581</v>
       </c>
       <c r="I34">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="J34">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N34">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O34">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P34">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q34">
-        <v>288.7005881717853</v>
+        <v>310.6604213672997</v>
       </c>
       <c r="R34">
-        <v>2598.305293546068</v>
+        <v>2795.943792305698</v>
       </c>
       <c r="S34">
-        <v>0.04540126831664868</v>
+        <v>0.04370045919040358</v>
       </c>
       <c r="T34">
-        <v>0.04540126831664867</v>
+        <v>0.04370045919040358</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.725097333333334</v>
+        <v>7.358527</v>
       </c>
       <c r="H35">
-        <v>17.175292</v>
+        <v>22.075581</v>
       </c>
       <c r="I35">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="J35">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N35">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O35">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P35">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q35">
-        <v>91.70507090985157</v>
+        <v>100.4555371925563</v>
       </c>
       <c r="R35">
-        <v>825.3456381886641</v>
+        <v>904.0998347330069</v>
       </c>
       <c r="S35">
-        <v>0.01442160737094877</v>
+        <v>0.01413103440796229</v>
       </c>
       <c r="T35">
-        <v>0.01442160737094877</v>
+        <v>0.01413103440796229</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.725097333333334</v>
+        <v>7.358527</v>
       </c>
       <c r="H36">
-        <v>17.175292</v>
+        <v>22.075581</v>
       </c>
       <c r="I36">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="J36">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N36">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O36">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P36">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q36">
-        <v>112.2653915926214</v>
+        <v>133.7662962736467</v>
       </c>
       <c r="R36">
-        <v>1010.388524333592</v>
+        <v>1203.89666646282</v>
       </c>
       <c r="S36">
-        <v>0.01765493862914258</v>
+        <v>0.01881684363147924</v>
       </c>
       <c r="T36">
-        <v>0.01765493862914258</v>
+        <v>0.01881684363147924</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.725097333333334</v>
+        <v>7.358527</v>
       </c>
       <c r="H37">
-        <v>17.175292</v>
+        <v>22.075581</v>
       </c>
       <c r="I37">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="J37">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N37">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O37">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P37">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q37">
-        <v>365.742192468932</v>
+        <v>897.3510671671773</v>
       </c>
       <c r="R37">
-        <v>3291.679732220388</v>
+        <v>8076.159604504596</v>
       </c>
       <c r="S37">
-        <v>0.05751688806785801</v>
+        <v>0.1262299636291297</v>
       </c>
       <c r="T37">
-        <v>0.05751688806785799</v>
+        <v>0.1262299636291297</v>
       </c>
     </row>
   </sheetData>
